--- a/student_database_300hr.xlsx
+++ b/student_database_300hr.xlsx
@@ -639,11 +639,15 @@
           <t>No</t>
         </is>
       </c>
-      <c r="Q2" t="n">
-        <v>3200</v>
-      </c>
-      <c r="R2" t="n">
-        <v>555</v>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>3200</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>555</t>
+        </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
@@ -651,8 +655,10 @@
         </is>
       </c>
       <c r="T2" t="inlineStr"/>
-      <c r="U2" t="n">
-        <v>2645</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>2645</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -738,11 +744,15 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="Q3" t="n">
-        <v>2500</v>
-      </c>
-      <c r="R3" t="n">
-        <v>400</v>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>2500</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
@@ -750,8 +760,10 @@
         </is>
       </c>
       <c r="T3" t="inlineStr"/>
-      <c r="U3" t="n">
-        <v>2100</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>2100</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr"/>
@@ -837,16 +849,22 @@
           <t>No</t>
         </is>
       </c>
-      <c r="Q4" t="n">
-        <v>2500</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>2500</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
-      <c r="U4" t="n">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr">
@@ -940,11 +958,15 @@
           <t>No</t>
         </is>
       </c>
-      <c r="Q5" t="n">
-        <v>2500</v>
-      </c>
-      <c r="R5" t="n">
-        <v>400</v>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>2500</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
@@ -952,8 +974,10 @@
         </is>
       </c>
       <c r="T5" t="inlineStr"/>
-      <c r="U5" t="n">
-        <v>2100</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>2100</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -1043,11 +1067,15 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="Q6" t="n">
-        <v>2250</v>
-      </c>
-      <c r="R6" t="n">
-        <v>400</v>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>2250</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -1055,8 +1083,10 @@
         </is>
       </c>
       <c r="T6" t="inlineStr"/>
-      <c r="U6" t="n">
-        <v>1850</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>1850</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr"/>
@@ -1134,11 +1164,15 @@
           <t>No</t>
         </is>
       </c>
-      <c r="Q7" t="n">
-        <v>3200</v>
-      </c>
-      <c r="R7" t="n">
-        <v>400</v>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>3200</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -1146,8 +1180,10 @@
         </is>
       </c>
       <c r="T7" t="inlineStr"/>
-      <c r="U7" t="n">
-        <v>2800</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>2800</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr"/>
@@ -1225,11 +1261,15 @@
           <t>No</t>
         </is>
       </c>
-      <c r="Q8" t="n">
-        <v>2500</v>
-      </c>
-      <c r="R8" t="n">
-        <v>400</v>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>2500</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
@@ -1237,8 +1277,10 @@
         </is>
       </c>
       <c r="T8" t="inlineStr"/>
-      <c r="U8" t="n">
-        <v>2100</v>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>2100</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -1324,16 +1366,22 @@
           <t>No</t>
         </is>
       </c>
-      <c r="Q9" t="n">
-        <v>500</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
-      <c r="U9" t="n">
-        <v>0</v>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="inlineStr">
@@ -1419,16 +1467,22 @@
           <t>No</t>
         </is>
       </c>
-      <c r="Q10" t="n">
-        <v>2500</v>
-      </c>
-      <c r="R10" t="n">
-        <v>555</v>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>2500</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>555</t>
+        </is>
       </c>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
-      <c r="U10" t="n">
-        <v>1945</v>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>1945</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -1518,11 +1572,15 @@
           <t>No</t>
         </is>
       </c>
-      <c r="Q11" t="n">
-        <v>3200</v>
-      </c>
-      <c r="R11" t="n">
-        <v>554.1799999999999</v>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>3200</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>554.18</t>
+        </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
@@ -1530,8 +1588,10 @@
         </is>
       </c>
       <c r="T11" t="inlineStr"/>
-      <c r="U11" t="n">
-        <v>2645.82</v>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>2645.82</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -1633,16 +1693,22 @@
           <t>No</t>
         </is>
       </c>
-      <c r="Q12" t="n">
-        <v>3200</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0</v>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>3200</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
-      <c r="U12" t="n">
-        <v>0</v>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="V12" t="inlineStr"/>
       <c r="W12" t="inlineStr">
@@ -1740,11 +1806,15 @@
           <t>No</t>
         </is>
       </c>
-      <c r="Q13" t="n">
-        <v>3200</v>
-      </c>
-      <c r="R13" t="n">
-        <v>553.92</v>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>3200</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>553.92</t>
+        </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
@@ -1752,8 +1822,10 @@
         </is>
       </c>
       <c r="T13" t="inlineStr"/>
-      <c r="U13" t="n">
-        <v>2646.08</v>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>2646.08</t>
+        </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -1839,11 +1911,15 @@
           <t>No</t>
         </is>
       </c>
-      <c r="Q14" t="n">
-        <v>3100</v>
-      </c>
-      <c r="R14" t="n">
-        <v>400</v>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>3100</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
@@ -1851,8 +1927,10 @@
         </is>
       </c>
       <c r="T14" t="inlineStr"/>
-      <c r="U14" t="n">
-        <v>2700</v>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>2700</t>
+        </is>
       </c>
       <c r="V14" t="inlineStr"/>
       <c r="W14" t="inlineStr"/>
@@ -1922,11 +2000,15 @@
           <t>No</t>
         </is>
       </c>
-      <c r="Q15" t="n">
-        <v>2880</v>
-      </c>
-      <c r="R15" t="n">
-        <v>400</v>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>2880</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -1934,8 +2016,10 @@
         </is>
       </c>
       <c r="T15" t="inlineStr"/>
-      <c r="U15" t="n">
-        <v>2480</v>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>2480</t>
+        </is>
       </c>
       <c r="V15" t="inlineStr"/>
       <c r="W15" t="inlineStr"/>
@@ -2021,11 +2105,15 @@
           <t>No</t>
         </is>
       </c>
-      <c r="Q16" t="n">
-        <v>2150</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1541</v>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>2150</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>1541</t>
+        </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -2033,8 +2121,10 @@
         </is>
       </c>
       <c r="T16" t="inlineStr"/>
-      <c r="U16" t="n">
-        <v>609</v>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>609</t>
+        </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -2128,11 +2218,15 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="Q17" t="n">
-        <v>2880</v>
-      </c>
-      <c r="R17" t="n">
-        <v>400</v>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>2880</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -2140,8 +2234,10 @@
         </is>
       </c>
       <c r="T17" t="inlineStr"/>
-      <c r="U17" t="n">
-        <v>2480</v>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>2480</t>
+        </is>
       </c>
       <c r="V17" t="inlineStr"/>
       <c r="W17" t="inlineStr">
@@ -2223,11 +2319,15 @@
           <t>No</t>
         </is>
       </c>
-      <c r="Q18" t="n">
-        <v>2880</v>
-      </c>
-      <c r="R18" t="n">
-        <v>400</v>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>2880</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -2235,8 +2335,10 @@
         </is>
       </c>
       <c r="T18" t="inlineStr"/>
-      <c r="U18" t="n">
-        <v>2480</v>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>2480</t>
+        </is>
       </c>
       <c r="V18" t="inlineStr"/>
       <c r="W18" t="inlineStr"/>

--- a/student_database_300hr.xlsx
+++ b/student_database_300hr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA18"/>
+  <dimension ref="A1:AA19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1964,12 +1964,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Ramona (Samin Yoga)</t>
+          <t>Luidmila</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1991,9 +1991,21 @@
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>Sales assisted booking</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Direct (ex student)</t>
+        </is>
+      </c>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
@@ -2012,7 +2024,7 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>30 Sep 2024</t>
+          <t>11 Oct 2024</t>
         </is>
       </c>
       <c r="T15" t="inlineStr"/>
@@ -2023,8 +2035,16 @@
       </c>
       <c r="V15" t="inlineStr"/>
       <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>Other - Talk to Ruchi</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>Mustard allergy</t>
+        </is>
+      </c>
       <c r="Z15" t="inlineStr">
         <is>
           <t>2</t>
@@ -2271,12 +2291,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Luidmila</t>
+          <t>Ramona (Samin Yoga)</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -2298,21 +2318,9 @@
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>Sales assisted booking</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>Direct (ex student)</t>
-        </is>
-      </c>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
@@ -2331,7 +2339,7 @@
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>11 Oct 2024</t>
+          <t>30 Sep 2024</t>
         </is>
       </c>
       <c r="T18" t="inlineStr"/>
@@ -2342,22 +2350,123 @@
       </c>
       <c r="V18" t="inlineStr"/>
       <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr">
-        <is>
-          <t>Other - Talk to Ruchi</t>
-        </is>
-      </c>
-      <c r="Y18" t="inlineStr">
-        <is>
-          <t>Mustard allergy</t>
-        </is>
-      </c>
+      <c r="X18" t="inlineStr"/>
+      <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
+        <is>
+          <t>April 12, 2025 to May 10, 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>April 12, 2025</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>May 10, 2025</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Qian</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>qianwang201023@gmail.com</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>HOM</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Private</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>Sales assisted booking</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Instagram </t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>3200</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="inlineStr"/>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>3200</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>Vegan/Dairy Free and Gluten Free</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>hold until 29.10</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
         <is>
           <t>April 12, 2025 to May 10, 2025</t>
         </is>

--- a/student_database_300hr.xlsx
+++ b/student_database_300hr.xlsx
@@ -2458,7 +2458,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>hold until 29.10</t>
+          <t>hold until 31.10. Wants to check in on 11.04 and check out on 11.05</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
